--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEADC9A-C88B-4DA0-ACAE-C92D4C4F8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57965757-6174-4434-9DFF-578110164AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>service_name</t>
   </si>
   <si>
-    <t>service_description</t>
+    <t>Service_description</t>
   </si>
   <si>
     <t>schema_name</t>
@@ -69,22 +69,19 @@
     <t>abc</t>
   </si>
   <si>
-    <t>test</t>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>bsic</t>
   </si>
   <si>
     <t>abctl</t>
   </si>
   <si>
-    <t>testtable</t>
-  </si>
-  <si>
     <t>abc_col1</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>test column</t>
   </si>
   <si>
     <t>sh1</t>
@@ -465,13 +462,13 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -528,13 +525,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -543,13 +540,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
